--- a/docs/Clinta aPanel.xlsx
+++ b/docs/Clinta aPanel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\admin.dright.pk\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\admin.dright.net\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F0F601-01B3-4BF6-A1A5-41B18AD9BCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -19,7 +20,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
   <si>
     <t>Product</t>
   </si>
@@ -193,8 +193,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
@@ -269,21 +269,3428 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="202">
+  <dxfs count="778">
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -395,26 +3802,6 @@
         <name val="Eras Medium ITC"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1560,7 +4947,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Shaheryar Malik" refreshedDate="45565.988168518517" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="138">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shaheryar Malik" refreshedDate="45565.988168518517" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="138" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -2858,8 +6245,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Development" colHeaderCaption=" ">
-  <location ref="A3:C41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Development" colHeaderCaption=" ">
+  <location ref="A3:C38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -2997,7 +6384,7 @@
         <item sd="0" x="16"/>
         <item sd="0" x="17"/>
         <item sd="0" x="18"/>
-        <item x="19"/>
+        <item sd="0" x="19"/>
         <item sd="0" x="20"/>
         <item sd="0" x="21"/>
         <item sd="0" x="22"/>
@@ -3041,7 +6428,7 @@
     <field x="2"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="37">
+  <rowItems count="34">
     <i>
       <x v="12"/>
     </i>
@@ -3090,9 +6477,6 @@
     <i r="1">
       <x v="107"/>
     </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
     <i r="1">
       <x v="108"/>
     </i>
@@ -3110,12 +6494,6 @@
     </i>
     <i r="1">
       <x v="107"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
     </i>
     <i>
       <x v="20"/>
@@ -3169,35 +6547,35 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="192">
-    <format dxfId="201">
+    <format dxfId="777">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="200">
+    <format dxfId="776">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="199">
+    <format dxfId="775">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="198">
+    <format dxfId="774">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="197">
+    <format dxfId="773">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="196">
+    <format dxfId="772">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="195">
+    <format dxfId="771">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="194">
+    <format dxfId="770">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="193">
+    <format dxfId="769">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3209,7 +6587,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="192">
+    <format dxfId="768">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3235,7 +6613,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="191">
+    <format dxfId="767">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3255,7 +6633,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="190">
+    <format dxfId="766">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3277,7 +6655,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="189">
+    <format dxfId="765">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3297,7 +6675,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="188">
+    <format dxfId="764">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3320,7 +6698,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="187">
+    <format dxfId="763">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3344,7 +6722,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="186">
+    <format dxfId="762">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3373,7 +6751,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="185">
+    <format dxfId="761">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3412,7 +6790,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="184">
+    <format dxfId="760">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3442,7 +6820,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="183">
+    <format dxfId="759">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3465,7 +6843,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="182">
+    <format dxfId="758">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3477,7 +6855,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="181">
+    <format dxfId="757">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3490,7 +6868,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="180">
+    <format dxfId="756">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3503,7 +6881,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="179">
+    <format dxfId="755">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3516,7 +6894,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="178">
+    <format dxfId="754">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3529,7 +6907,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="177">
+    <format dxfId="753">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3542,7 +6920,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="176">
+    <format dxfId="752">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3555,7 +6933,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="175">
+    <format dxfId="751">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3568,7 +6946,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="174">
+    <format dxfId="750">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3581,7 +6959,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="173">
+    <format dxfId="749">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3594,7 +6972,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="172">
+    <format dxfId="748">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3607,7 +6985,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="171">
+    <format dxfId="747">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3620,7 +6998,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="170">
+    <format dxfId="746">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3633,7 +7011,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="169">
+    <format dxfId="745">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3646,7 +7024,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="168">
+    <format dxfId="744">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3659,7 +7037,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="167">
+    <format dxfId="743">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3672,7 +7050,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="166">
+    <format dxfId="742">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3685,7 +7063,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="165">
+    <format dxfId="741">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3698,7 +7076,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="164">
+    <format dxfId="740">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3711,7 +7089,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="163">
+    <format dxfId="739">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3724,7 +7102,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="162">
+    <format dxfId="738">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3737,7 +7115,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="161">
+    <format dxfId="737">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3750,7 +7128,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="160">
+    <format dxfId="736">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3763,7 +7141,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="159">
+    <format dxfId="735">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3776,7 +7154,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="158">
+    <format dxfId="734">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3789,7 +7167,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="157">
+    <format dxfId="733">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3802,7 +7180,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="156">
+    <format dxfId="732">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3815,7 +7193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="155">
+    <format dxfId="731">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3828,7 +7206,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="154">
+    <format dxfId="730">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3841,7 +7219,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="153">
+    <format dxfId="729">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3854,7 +7232,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="152">
+    <format dxfId="728">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3867,7 +7245,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="151">
+    <format dxfId="727">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3880,7 +7258,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="150">
+    <format dxfId="726">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3893,7 +7271,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="149">
+    <format dxfId="725">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3906,7 +7284,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="148">
+    <format dxfId="724">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3919,7 +7297,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="147">
+    <format dxfId="723">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3932,7 +7310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="146">
+    <format dxfId="722">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3945,7 +7323,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="145">
+    <format dxfId="721">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3958,7 +7336,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="144">
+    <format dxfId="720">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3971,7 +7349,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="143">
+    <format dxfId="719">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3984,7 +7362,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="142">
+    <format dxfId="718">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3997,7 +7375,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="141">
+    <format dxfId="717">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4010,7 +7388,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="140">
+    <format dxfId="716">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4023,7 +7401,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="139">
+    <format dxfId="715">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4036,7 +7414,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="138">
+    <format dxfId="714">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4049,7 +7427,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="137">
+    <format dxfId="713">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4062,7 +7440,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="136">
+    <format dxfId="712">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4075,7 +7453,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="135">
+    <format dxfId="711">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4088,7 +7466,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="134">
+    <format dxfId="710">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4101,7 +7479,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="133">
+    <format dxfId="709">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4114,7 +7492,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="132">
+    <format dxfId="708">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4127,7 +7505,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="131">
+    <format dxfId="707">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4140,7 +7518,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="130">
+    <format dxfId="706">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4153,7 +7531,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="129">
+    <format dxfId="705">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4166,7 +7544,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="128">
+    <format dxfId="704">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4179,7 +7557,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="127">
+    <format dxfId="703">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4192,7 +7570,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="126">
+    <format dxfId="702">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4205,7 +7583,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="125">
+    <format dxfId="701">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4218,7 +7596,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="124">
+    <format dxfId="700">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4231,7 +7609,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="123">
+    <format dxfId="699">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4244,7 +7622,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="122">
+    <format dxfId="698">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4257,7 +7635,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="121">
+    <format dxfId="697">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4270,7 +7648,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="696">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4283,7 +7661,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="119">
+    <format dxfId="695">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4296,7 +7674,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="118">
+    <format dxfId="694">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4309,7 +7687,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="693">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4322,7 +7700,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="692">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4335,7 +7713,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="691">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4348,7 +7726,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="690">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4361,7 +7739,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="113">
+    <format dxfId="689">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4374,7 +7752,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="112">
+    <format dxfId="688">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4387,7 +7765,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="111">
+    <format dxfId="687">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4400,7 +7778,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="110">
+    <format dxfId="686">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4413,7 +7791,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="109">
+    <format dxfId="685">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4426,7 +7804,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="108">
+    <format dxfId="684">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4439,7 +7817,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="107">
+    <format dxfId="683">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4452,7 +7830,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="682">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4465,7 +7843,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="105">
+    <format dxfId="681">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4478,7 +7856,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="104">
+    <format dxfId="680">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4491,7 +7869,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="679">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4504,7 +7882,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="102">
+    <format dxfId="678">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4517,7 +7895,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="101">
+    <format dxfId="677">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4530,7 +7908,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="676">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4543,7 +7921,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="675">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4556,7 +7934,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="674">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4569,7 +7947,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="673">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4582,7 +7960,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="672">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4595,7 +7973,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="671">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4608,7 +7986,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="670">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4621,7 +7999,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="93">
+    <format dxfId="669">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4634,7 +8012,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="668">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4647,7 +8025,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="667">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4660,7 +8038,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="666">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4673,7 +8051,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="665">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4686,7 +8064,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="664">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4699,7 +8077,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="663">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4712,7 +8090,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="662">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4725,7 +8103,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="661">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4738,7 +8116,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="660">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4751,7 +8129,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="659">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4764,7 +8142,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="658">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4777,7 +8155,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="657">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4790,7 +8168,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="656">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4803,7 +8181,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="655">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4816,7 +8194,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="654">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4829,7 +8207,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="653">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4842,7 +8220,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="652">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4855,7 +8233,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="651">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4868,7 +8246,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="650">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4881,7 +8259,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="649">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4894,7 +8272,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="648">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4907,7 +8285,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="647">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4920,7 +8298,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="646">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4933,7 +8311,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="645">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4946,7 +8324,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="644">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4959,7 +8337,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="643">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4972,7 +8350,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="642">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4985,7 +8363,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="641">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4998,7 +8376,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="640">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5011,7 +8389,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="639">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5024,7 +8402,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="638">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5037,7 +8415,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="637">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5050,7 +8428,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="636">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5063,7 +8441,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="635">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5076,7 +8454,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="634">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5089,7 +8467,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="633">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5102,7 +8480,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="632">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5115,7 +8493,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="631">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5128,7 +8506,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="630">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5141,7 +8519,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="629">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5154,7 +8532,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="628">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5167,7 +8545,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="627">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5180,7 +8558,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="626">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5193,7 +8571,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="625">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5206,7 +8584,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="624">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5219,7 +8597,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="623">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5232,7 +8610,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="622">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5245,7 +8623,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="621">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5258,7 +8636,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="620">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5271,7 +8649,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="619">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5284,7 +8662,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="618">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5297,7 +8675,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="617">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5310,7 +8688,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="616">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5323,7 +8701,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="615">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5336,7 +8714,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="614">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5349,7 +8727,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="613">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5362,7 +8740,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="612">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5375,7 +8753,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="611">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5388,7 +8766,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="610">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -5401,45 +8779,45 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="609">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="608">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="607">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="606">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="605">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="604">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="603">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="602">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="601">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="600">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="599">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5451,7 +8829,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="598">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5477,7 +8855,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="597">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5497,7 +8875,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="596">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5519,7 +8897,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="595">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5539,7 +8917,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="594">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5562,7 +8940,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="593">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5586,7 +8964,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="592">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5615,7 +8993,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="591">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5654,7 +9032,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="590">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5684,7 +9062,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="589">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5707,7 +9085,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="588">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5719,14 +9097,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="587">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="586">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5743,18 +9121,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F47" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <sortState ref="A2:F47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:F47" totalsRowShown="0" headerRowDxfId="585" dataDxfId="584">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">
     <sortCondition ref="B2:B47"/>
     <sortCondition ref="C2:C47"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
-    <tableColumn id="1" name="Product" dataDxfId="4"/>
-    <tableColumn id="3" name="Segment" dataDxfId="3"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
-    <tableColumn id="4" name="Task" dataDxfId="1"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sr. NO " dataDxfId="583"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product" dataDxfId="582"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Segment" dataDxfId="581"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sub Segment" dataDxfId="580"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Task" dataDxfId="579"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="578"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6076,36 +9454,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="5.25" customHeight="1">
+    <row r="3" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -6114,7 +9491,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="20.25">
+    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6125,413 +9502,383 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.25">
+    <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.25">
+    <row r="12" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.25">
+    <row r="14" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.25">
+    <row r="16" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>4</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="7">
         <v>2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="7">
         <v>2</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.25">
+    <row r="19" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="7">
         <v>5</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.25">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="7">
         <v>1</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20.25">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="5">
+    <row r="21" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="7">
         <v>1</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20.25">
-      <c r="A22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="5">
+    <row r="22" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.25">
-      <c r="A23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="5">
+    <row r="23" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="7">
         <v>1</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="20.25">
-      <c r="A24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="5">
+    <row r="24" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="7">
         <v>1</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20.25">
-      <c r="A25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="5">
+    <row r="25" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="7">
+        <v>11</v>
+      </c>
+      <c r="C27" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7">
         <v>1</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C29" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20.25">
-      <c r="A26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="5">
-        <v>2</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2</v>
+    <row r="30" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20.25">
-      <c r="A27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="5">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5">
-        <v>2</v>
+    <row r="31" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20.25">
-      <c r="A28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="5">
+    <row r="32" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="7">
         <v>1</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C32" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.25">
-      <c r="A29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="5">
+    <row r="33" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="7">
         <v>1</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C33" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.25">
-      <c r="A30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="5">
-        <v>11</v>
-      </c>
-      <c r="C30" s="5">
-        <v>11</v>
+    <row r="34" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.25">
-      <c r="A31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="5">
-        <v>2</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2</v>
+    <row r="35" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.25">
-      <c r="A32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="5">
+    <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C36" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.25">
-      <c r="A33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="5">
+    <row r="37" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="7">
         <v>1</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C37" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.25">
-      <c r="A34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1</v>
+    <row r="38" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="7">
+        <v>38</v>
+      </c>
+      <c r="C38" s="7">
+        <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.25">
-      <c r="A35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20.25">
-      <c r="A36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20.25">
-      <c r="A37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20.25">
-      <c r="A38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20.25">
-      <c r="A39" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20.25">
-      <c r="A40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20.25">
-      <c r="A41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="5">
-        <v>38</v>
-      </c>
-      <c r="C41" s="5">
-        <v>38</v>
-      </c>
-    </row>
+    <row r="39" spans="1:3" ht="20.25" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:3" ht="20.25" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:3" ht="20.25" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -6542,25 +9889,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -6580,7 +9927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6598,7 +9945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6616,7 +9963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6634,7 +9981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6650,7 +9997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6668,7 +10015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6686,7 +10033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6704,7 +10051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6722,7 +10069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6740,7 +10087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6758,7 +10105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6776,7 +10123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6794,7 +10141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6812,7 +10159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6830,7 +10177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6848,7 +10195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6866,7 +10213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6884,7 +10231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6902,7 +10249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6920,7 +10267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6938,7 +10285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6956,7 +10303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6974,7 +10321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6992,7 +10339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7010,7 +10357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7028,7 +10375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7046,7 +10393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7064,7 +10411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7082,7 +10429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7100,7 +10447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7118,7 +10465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7136,7 +10483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7154,7 +10501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7172,7 +10519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7190,7 +10537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7208,7 +10555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75">
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7226,7 +10573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75">
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7244,7 +10591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7262,7 +10609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7280,7 +10627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7298,7 +10645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7308,7 +10655,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7318,7 +10665,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7328,7 +10675,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7338,7 +10685,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7348,7 +10695,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7361,10 +10708,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Clinta aPanel.xlsx
+++ b/docs/Clinta aPanel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\admin.dright.net\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F0F601-01B3-4BF6-A1A5-41B18AD9BCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -193,8 +192,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,15 +271,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="778">
+  <dxfs count="970">
     <dxf>
       <font>
         <name val="Eras Medium ITC"/>
@@ -3673,23 +3672,1133 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3802,6 +4911,26 @@
         <name val="Eras Medium ITC"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4947,7 +6076,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shaheryar Malik" refreshedDate="45565.988168518517" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="138" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Shaheryar Malik" refreshedDate="45565.988168518517" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="138">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -6245,7 +7374,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Development" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Development" colHeaderCaption=" ">
   <location ref="A3:C38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -6547,35 +7676,35 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="192">
-    <format dxfId="777">
+    <format dxfId="969">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="776">
+    <format dxfId="968">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="775">
+    <format dxfId="967">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="774">
+    <format dxfId="966">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="773">
+    <format dxfId="965">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="772">
+    <format dxfId="964">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="771">
+    <format dxfId="963">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="770">
+    <format dxfId="962">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="769">
+    <format dxfId="961">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6587,7 +7716,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="768">
+    <format dxfId="960">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6613,7 +7742,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="767">
+    <format dxfId="959">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6633,7 +7762,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="766">
+    <format dxfId="958">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6655,7 +7784,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="765">
+    <format dxfId="957">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6675,7 +7804,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="764">
+    <format dxfId="956">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6698,7 +7827,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="763">
+    <format dxfId="955">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6722,7 +7851,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="762">
+    <format dxfId="954">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6751,7 +7880,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="761">
+    <format dxfId="953">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6790,7 +7919,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="760">
+    <format dxfId="952">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6820,7 +7949,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="759">
+    <format dxfId="951">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6843,7 +7972,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="758">
+    <format dxfId="950">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6855,7 +7984,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="757">
+    <format dxfId="949">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -6868,7 +7997,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="756">
+    <format dxfId="948">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -6881,7 +8010,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="755">
+    <format dxfId="947">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -6894,7 +8023,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="754">
+    <format dxfId="946">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -6907,7 +8036,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="753">
+    <format dxfId="945">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -6920,7 +8049,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="752">
+    <format dxfId="944">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -6933,7 +8062,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="751">
+    <format dxfId="943">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -6946,7 +8075,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="750">
+    <format dxfId="942">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -6959,7 +8088,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="749">
+    <format dxfId="941">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -6972,7 +8101,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="748">
+    <format dxfId="940">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -6985,7 +8114,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="747">
+    <format dxfId="939">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -6998,7 +8127,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="746">
+    <format dxfId="938">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7011,7 +8140,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="745">
+    <format dxfId="937">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7024,7 +8153,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="744">
+    <format dxfId="936">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7037,7 +8166,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="743">
+    <format dxfId="935">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7050,7 +8179,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="742">
+    <format dxfId="934">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7063,7 +8192,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="741">
+    <format dxfId="933">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7076,7 +8205,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="740">
+    <format dxfId="932">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7089,7 +8218,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="739">
+    <format dxfId="931">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7102,7 +8231,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="738">
+    <format dxfId="930">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7115,7 +8244,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="737">
+    <format dxfId="929">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7128,7 +8257,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="736">
+    <format dxfId="928">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7141,7 +8270,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="735">
+    <format dxfId="927">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7154,7 +8283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="734">
+    <format dxfId="926">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7167,7 +8296,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="733">
+    <format dxfId="925">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7180,7 +8309,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="732">
+    <format dxfId="924">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7193,7 +8322,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="731">
+    <format dxfId="923">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7206,7 +8335,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="730">
+    <format dxfId="922">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7219,7 +8348,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="729">
+    <format dxfId="921">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7232,7 +8361,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="728">
+    <format dxfId="920">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7245,7 +8374,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="727">
+    <format dxfId="919">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7258,7 +8387,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="726">
+    <format dxfId="918">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7271,7 +8400,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="725">
+    <format dxfId="917">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7284,7 +8413,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="724">
+    <format dxfId="916">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7297,7 +8426,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="723">
+    <format dxfId="915">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7310,7 +8439,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="722">
+    <format dxfId="914">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7323,7 +8452,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="721">
+    <format dxfId="913">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7336,7 +8465,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="720">
+    <format dxfId="912">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7349,7 +8478,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="719">
+    <format dxfId="911">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7362,7 +8491,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="718">
+    <format dxfId="910">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7375,7 +8504,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="717">
+    <format dxfId="909">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7388,7 +8517,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="716">
+    <format dxfId="908">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7401,7 +8530,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="715">
+    <format dxfId="907">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7414,7 +8543,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="714">
+    <format dxfId="906">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7427,7 +8556,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="713">
+    <format dxfId="905">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7440,7 +8569,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="712">
+    <format dxfId="904">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7453,7 +8582,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="711">
+    <format dxfId="903">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7466,7 +8595,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="710">
+    <format dxfId="902">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7479,7 +8608,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="709">
+    <format dxfId="901">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7492,7 +8621,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="708">
+    <format dxfId="900">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7505,7 +8634,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="707">
+    <format dxfId="899">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7518,7 +8647,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="706">
+    <format dxfId="898">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7531,7 +8660,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="705">
+    <format dxfId="897">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7544,7 +8673,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="704">
+    <format dxfId="896">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7557,7 +8686,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="703">
+    <format dxfId="895">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7570,7 +8699,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="702">
+    <format dxfId="894">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7583,7 +8712,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="701">
+    <format dxfId="893">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7596,7 +8725,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="700">
+    <format dxfId="892">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7609,7 +8738,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="699">
+    <format dxfId="891">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7622,7 +8751,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="698">
+    <format dxfId="890">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7635,7 +8764,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="697">
+    <format dxfId="889">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7648,7 +8777,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="696">
+    <format dxfId="888">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7661,7 +8790,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="695">
+    <format dxfId="887">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7674,7 +8803,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="694">
+    <format dxfId="886">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7687,7 +8816,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="693">
+    <format dxfId="885">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7700,7 +8829,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="692">
+    <format dxfId="884">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7713,7 +8842,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="691">
+    <format dxfId="883">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7726,7 +8855,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="690">
+    <format dxfId="882">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7739,7 +8868,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="689">
+    <format dxfId="881">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7752,7 +8881,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="688">
+    <format dxfId="880">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7765,7 +8894,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="687">
+    <format dxfId="879">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7778,7 +8907,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="686">
+    <format dxfId="878">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7791,7 +8920,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="685">
+    <format dxfId="877">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7804,7 +8933,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="684">
+    <format dxfId="876">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7817,7 +8946,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="683">
+    <format dxfId="875">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7830,7 +8959,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="682">
+    <format dxfId="874">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7843,7 +8972,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="681">
+    <format dxfId="873">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7856,7 +8985,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="680">
+    <format dxfId="872">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7869,7 +8998,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="679">
+    <format dxfId="871">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7882,7 +9011,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="678">
+    <format dxfId="870">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7895,7 +9024,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="677">
+    <format dxfId="869">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7908,7 +9037,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="676">
+    <format dxfId="868">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7921,7 +9050,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="675">
+    <format dxfId="867">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7934,7 +9063,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="674">
+    <format dxfId="866">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7947,7 +9076,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="673">
+    <format dxfId="865">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7960,7 +9089,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="672">
+    <format dxfId="864">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7973,7 +9102,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="671">
+    <format dxfId="863">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7986,7 +9115,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="670">
+    <format dxfId="862">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -7999,7 +9128,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="669">
+    <format dxfId="861">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8012,7 +9141,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="668">
+    <format dxfId="860">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8025,7 +9154,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="667">
+    <format dxfId="859">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8038,7 +9167,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="666">
+    <format dxfId="858">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8051,7 +9180,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="665">
+    <format dxfId="857">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8064,7 +9193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="664">
+    <format dxfId="856">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8077,7 +9206,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="663">
+    <format dxfId="855">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8090,7 +9219,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="662">
+    <format dxfId="854">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8103,7 +9232,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="661">
+    <format dxfId="853">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8116,7 +9245,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="660">
+    <format dxfId="852">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8129,7 +9258,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="659">
+    <format dxfId="851">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8142,7 +9271,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="658">
+    <format dxfId="850">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8155,7 +9284,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="657">
+    <format dxfId="849">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8168,7 +9297,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="656">
+    <format dxfId="848">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8181,7 +9310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="655">
+    <format dxfId="847">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8194,7 +9323,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="654">
+    <format dxfId="846">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8207,7 +9336,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="653">
+    <format dxfId="845">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8220,7 +9349,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="652">
+    <format dxfId="844">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8233,7 +9362,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="651">
+    <format dxfId="843">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8246,7 +9375,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="650">
+    <format dxfId="842">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8259,7 +9388,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="649">
+    <format dxfId="841">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8272,7 +9401,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="648">
+    <format dxfId="840">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8285,7 +9414,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="647">
+    <format dxfId="839">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8298,7 +9427,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="646">
+    <format dxfId="838">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8311,7 +9440,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="645">
+    <format dxfId="837">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8324,7 +9453,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="644">
+    <format dxfId="836">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8337,7 +9466,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="643">
+    <format dxfId="835">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8350,7 +9479,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="642">
+    <format dxfId="834">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8363,7 +9492,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="641">
+    <format dxfId="833">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8376,7 +9505,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="640">
+    <format dxfId="832">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8389,7 +9518,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="639">
+    <format dxfId="831">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8402,7 +9531,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="638">
+    <format dxfId="830">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8415,7 +9544,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="637">
+    <format dxfId="829">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8428,7 +9557,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="636">
+    <format dxfId="828">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8441,7 +9570,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="635">
+    <format dxfId="827">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8454,7 +9583,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="634">
+    <format dxfId="826">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8467,7 +9596,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="633">
+    <format dxfId="825">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8480,7 +9609,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="632">
+    <format dxfId="824">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8493,7 +9622,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="631">
+    <format dxfId="823">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8506,7 +9635,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="630">
+    <format dxfId="822">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8519,7 +9648,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="629">
+    <format dxfId="821">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8532,7 +9661,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="628">
+    <format dxfId="820">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8545,7 +9674,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="627">
+    <format dxfId="819">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8558,7 +9687,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="626">
+    <format dxfId="818">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8571,7 +9700,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="625">
+    <format dxfId="817">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8584,7 +9713,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="624">
+    <format dxfId="816">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8597,7 +9726,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="623">
+    <format dxfId="815">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8610,7 +9739,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="622">
+    <format dxfId="814">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8623,7 +9752,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="621">
+    <format dxfId="813">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8636,7 +9765,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="620">
+    <format dxfId="812">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8649,7 +9778,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="619">
+    <format dxfId="811">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8662,7 +9791,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="618">
+    <format dxfId="810">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8675,7 +9804,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="617">
+    <format dxfId="809">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8688,7 +9817,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="616">
+    <format dxfId="808">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8701,7 +9830,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="615">
+    <format dxfId="807">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8714,7 +9843,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="614">
+    <format dxfId="806">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8727,7 +9856,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="613">
+    <format dxfId="805">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8740,7 +9869,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="612">
+    <format dxfId="804">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8753,7 +9882,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="611">
+    <format dxfId="803">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8766,7 +9895,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="610">
+    <format dxfId="802">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -8779,45 +9908,45 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="609">
+    <format dxfId="801">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="608">
+    <format dxfId="800">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="607">
+    <format dxfId="799">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="606">
+    <format dxfId="798">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="605">
+    <format dxfId="797">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="604">
+    <format dxfId="796">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="603">
+    <format dxfId="795">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="602">
+    <format dxfId="794">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="601">
+    <format dxfId="793">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="600">
+    <format dxfId="792">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="599">
+    <format dxfId="791">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -8829,7 +9958,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="598">
+    <format dxfId="790">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -8855,7 +9984,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="597">
+    <format dxfId="789">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -8875,7 +10004,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="596">
+    <format dxfId="788">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -8897,7 +10026,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="595">
+    <format dxfId="787">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -8917,7 +10046,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="594">
+    <format dxfId="786">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -8940,7 +10069,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="593">
+    <format dxfId="785">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -8964,7 +10093,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="592">
+    <format dxfId="784">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -8993,7 +10122,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="591">
+    <format dxfId="783">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9032,7 +10161,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="590">
+    <format dxfId="782">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9062,7 +10191,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="589">
+    <format dxfId="781">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9085,7 +10214,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="588">
+    <format dxfId="780">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9097,14 +10226,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="587">
+    <format dxfId="779">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="586">
+    <format dxfId="778">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -9121,18 +10250,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:F47" totalsRowShown="0" headerRowDxfId="585" dataDxfId="584">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F47" totalsRowShown="0" headerRowDxfId="775" dataDxfId="774">
+  <sortState ref="A2:F47">
     <sortCondition ref="B2:B47"/>
     <sortCondition ref="C2:C47"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sr. NO " dataDxfId="583"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product" dataDxfId="582"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Segment" dataDxfId="581"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sub Segment" dataDxfId="580"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Task" dataDxfId="579"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="578"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="773"/>
+    <tableColumn id="1" name="Product" dataDxfId="772"/>
+    <tableColumn id="3" name="Segment" dataDxfId="771"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="770"/>
+    <tableColumn id="4" name="Task" dataDxfId="769"/>
+    <tableColumn id="5" name="Status" dataDxfId="768"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9454,35 +10583,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="33.75">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="5.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -9491,7 +10621,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="20.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -9502,383 +10632,382 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="20.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>14</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="20.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="20.25">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="20.25">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="20.25">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="20.25">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="20.25">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="20.25">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="20.25">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="20.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="20.25">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="20.25">
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>4</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="20.25">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="20.25">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="20.25">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>5</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="20.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="20.25">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="20.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="20.25">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>1</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="20.25">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>1</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="20.25">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>2</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="20.25">
       <c r="A26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>2</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="20.25">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>11</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="20.25">
       <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>2</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="20.25">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>1</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="20.25">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>1</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="20.25">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>1</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="20.25">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>1</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="20.25">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>1</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="20.25">
       <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>1</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="20.25">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>1</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="20.25">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>1</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="20.25">
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>1</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="20.25">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>38</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.25" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:3" ht="20.25" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:3" ht="20.25" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:3" ht="20.25"/>
+    <row r="40" spans="1:3" ht="20.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -9889,7 +11018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9897,17 +11026,17 @@
       <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -9927,7 +11056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9945,7 +11074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9963,7 +11092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9981,7 +11110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9997,7 +11126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10015,7 +11144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10033,7 +11162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10051,7 +11180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10069,7 +11198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10087,7 +11216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10105,7 +11234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10123,7 +11252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10141,7 +11270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10159,7 +11288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10177,7 +11306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -10195,7 +11324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -10213,7 +11342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -10231,7 +11360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -10249,7 +11378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -10267,7 +11396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10285,7 +11414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -10303,7 +11432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -10321,7 +11450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -10339,7 +11468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -10357,7 +11486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -10375,7 +11504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -10393,7 +11522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -10411,7 +11540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -10429,7 +11558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10447,7 +11576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -10465,7 +11594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10483,7 +11612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10501,7 +11630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -10519,7 +11648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -10537,7 +11666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -10555,7 +11684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -10573,7 +11702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -10591,7 +11720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -10609,7 +11738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -10627,7 +11756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -10645,7 +11774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -10655,7 +11784,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -10665,7 +11794,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -10675,7 +11804,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.75">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -10685,7 +11814,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.75">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -10695,7 +11824,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -10708,10 +11837,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="577" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
